--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>2</v>

--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="C3">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>10</v>

--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="C3">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="C2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="C3">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="C3">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>4</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C3">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="C3">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>5</v>

--- a/Base/Teams/49ers/Target Depth Data.xlsx
+++ b/Base/Teams/49ers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="C3">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>4</v>
